--- a/BDD/BDD_Demenagement.xlsx
+++ b/BDD/BDD_Demenagement.xlsx
@@ -1,44 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moi\Documents\GitHub\WDPII\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Documents\GitHub\WDPII\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7E7719-11FE-428B-8212-D1CC584E37A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="5660" yWindow="340" windowWidth="13330" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -63,11 +50,17 @@
   <si>
     <t>8.37e-09 x - 2.77e-06 x + 0.0003412 x - 0.01882 x + 0.4158 x - 1.031 x - 31.59 x + 739.4</t>
   </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,68 +134,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Quartier mal fréquenté"/>
-      <sheetName val="Quartier aisé"/>
-      <sheetName val="Chantier"/>
-      <sheetName val="Déménagement"/>
-      <sheetName val="Espace verts"/>
-      <sheetName val="Discothèque"/>
-      <sheetName val="Festival"/>
-      <sheetName val="Groupe scolaire"/>
-      <sheetName val="Groupe scolaire + espace vert"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>44927</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Nocivité</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,16 +432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J106"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,13 +457,17 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44927</v>
       </c>
@@ -548,15 +483,19 @@
       <c r="E2" s="1">
         <v>739.4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="1">
+        <v>45.651888999999997</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44934</v>
       </c>
@@ -578,7 +517,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44941</v>
       </c>
@@ -602,7 +541,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44948</v>
       </c>
@@ -626,7 +565,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44955</v>
       </c>
@@ -648,7 +587,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44962</v>
       </c>
@@ -670,7 +609,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44969</v>
       </c>
@@ -692,7 +631,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44976</v>
       </c>
@@ -714,7 +653,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44983</v>
       </c>
@@ -736,7 +675,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44990</v>
       </c>
@@ -758,7 +697,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44997</v>
       </c>
@@ -780,7 +719,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45004</v>
       </c>
@@ -802,7 +741,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45011</v>
       </c>
@@ -824,7 +763,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45018</v>
       </c>
@@ -846,7 +785,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45025</v>
       </c>
@@ -868,7 +807,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45032</v>
       </c>
@@ -890,7 +829,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45039</v>
       </c>
@@ -912,7 +851,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45046</v>
       </c>
@@ -934,7 +873,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45053</v>
       </c>
@@ -956,7 +895,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>45060</v>
       </c>
@@ -978,7 +917,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>45067</v>
       </c>
@@ -1000,7 +939,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>45074</v>
       </c>
@@ -1022,7 +961,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>45081</v>
       </c>
@@ -1044,7 +983,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>45088</v>
       </c>
@@ -1066,7 +1005,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>45095</v>
       </c>
@@ -1088,7 +1027,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>45102</v>
       </c>
@@ -1110,7 +1049,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>45109</v>
       </c>
@@ -1132,7 +1071,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>45116</v>
       </c>
@@ -1154,7 +1093,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45123</v>
       </c>
@@ -1176,7 +1115,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>45130</v>
       </c>
@@ -1198,7 +1137,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>45137</v>
       </c>
@@ -1220,7 +1159,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>45144</v>
       </c>
@@ -1242,7 +1181,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>45151</v>
       </c>
@@ -1264,7 +1203,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>45158</v>
       </c>
@@ -1286,7 +1225,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>45165</v>
       </c>
@@ -1308,7 +1247,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>45172</v>
       </c>
@@ -1330,7 +1269,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>45179</v>
       </c>
@@ -1352,7 +1291,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>45186</v>
       </c>
@@ -1374,7 +1313,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>45193</v>
       </c>
@@ -1396,7 +1335,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>45200</v>
       </c>
@@ -1418,7 +1357,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>45207</v>
       </c>
@@ -1440,7 +1379,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>45214</v>
       </c>
@@ -1462,7 +1401,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>45221</v>
       </c>
@@ -1484,7 +1423,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>45228</v>
       </c>
@@ -1506,7 +1445,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45235</v>
       </c>
@@ -1528,7 +1467,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45242</v>
       </c>
@@ -1550,7 +1489,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>45249</v>
       </c>
@@ -1572,7 +1511,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>45256</v>
       </c>
@@ -1594,7 +1533,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>45263</v>
       </c>
@@ -1616,7 +1555,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>45270</v>
       </c>
@@ -1638,7 +1577,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>45277</v>
       </c>
@@ -1660,7 +1599,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>45284</v>
       </c>
@@ -1682,7 +1621,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>45291</v>
       </c>
@@ -1704,7 +1643,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>45298</v>
       </c>
@@ -1726,7 +1665,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>45305</v>
       </c>
@@ -1748,7 +1687,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>45312</v>
       </c>
@@ -1770,7 +1709,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>45319</v>
       </c>
@@ -1792,7 +1731,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>45326</v>
       </c>
@@ -1814,7 +1753,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>45333</v>
       </c>
@@ -1836,7 +1775,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>45340</v>
       </c>
@@ -1858,7 +1797,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>45347</v>
       </c>
@@ -1880,7 +1819,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>45354</v>
       </c>
@@ -1902,7 +1841,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>45361</v>
       </c>
@@ -1924,7 +1863,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>45368</v>
       </c>
@@ -1946,7 +1885,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>45375</v>
       </c>
@@ -1968,7 +1907,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>45382</v>
       </c>
@@ -1990,7 +1929,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>45389</v>
       </c>
@@ -2012,7 +1951,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>45396</v>
       </c>
@@ -2034,7 +1973,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>45403</v>
       </c>
@@ -2056,7 +1995,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>45410</v>
       </c>
@@ -2078,7 +2017,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>45417</v>
       </c>
@@ -2100,7 +2039,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>45424</v>
       </c>
@@ -2122,7 +2061,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>45431</v>
       </c>
@@ -2144,7 +2083,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>45438</v>
       </c>
@@ -2166,7 +2105,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>45445</v>
       </c>
@@ -2188,7 +2127,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>45452</v>
       </c>
@@ -2210,7 +2149,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>45459</v>
       </c>
@@ -2232,7 +2171,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>45466</v>
       </c>
@@ -2254,7 +2193,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>45473</v>
       </c>
@@ -2276,7 +2215,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>45480</v>
       </c>
@@ -2298,7 +2237,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>45487</v>
       </c>
@@ -2320,7 +2259,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>45494</v>
       </c>
@@ -2342,7 +2281,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>45501</v>
       </c>
@@ -2364,7 +2303,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>45508</v>
       </c>
@@ -2386,7 +2325,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>45515</v>
       </c>
@@ -2408,7 +2347,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>45522</v>
       </c>
@@ -2430,7 +2369,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>45529</v>
       </c>
@@ -2452,7 +2391,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>45536</v>
       </c>
@@ -2474,7 +2413,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>45543</v>
       </c>
@@ -2496,7 +2435,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>45550</v>
       </c>
@@ -2518,7 +2457,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>45557</v>
       </c>
@@ -2540,7 +2479,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>45564</v>
       </c>
@@ -2562,7 +2501,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>45571</v>
       </c>
@@ -2584,7 +2523,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>45578</v>
       </c>
@@ -2606,7 +2545,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>45585</v>
       </c>
@@ -2628,7 +2567,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45592</v>
       </c>
@@ -2650,7 +2589,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>45599</v>
       </c>
@@ -2672,7 +2611,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>45606</v>
       </c>
@@ -2694,7 +2633,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>45613</v>
       </c>
@@ -2716,7 +2655,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>45620</v>
       </c>
@@ -2738,7 +2677,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>45627</v>
       </c>
@@ -2760,7 +2699,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>45634</v>
       </c>
@@ -2782,7 +2721,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>45641</v>
       </c>
@@ -2804,7 +2743,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>45648</v>
       </c>
@@ -2826,7 +2765,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>45655</v>
       </c>
@@ -2850,7 +2789,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
